--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Tickell/Samuel_Tickell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Tickell/Samuel_Tickell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Richard Tickell  est un officier de la British Army, un artiste et un ornithologue britannique, né le 19 août 1811 à Cuttack en Inde et mort le 20 avril 1875 à Cheltenham.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études en Angleterre avant d’entrer à dix-neuf ans dans l’infanterie native du Bengale. Il sert au Bengale jusqu’en 1840 où il commande l’escorte militaire de Brian Houghton Hodgson (1800-1894) à Katmandou. Il revient au Bengale en 1843, est promu capitaine en 1847 et part alors en Birmanie.
 Durant son séjour en Inde, Tickell fait d’importantes contributions sur les oiseaux et les mammifères du pays, observant les animaux dans la nature et récoltant des spécimens. Il fait paraître des articles dans les volumes 17 et 18 du Journal of the Asiatic Society of Bengal. Il est l’auteur également d’article sur la langue Ho.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres) : 400 p.  (ISBN 0-300-10359-X)</t>
         </is>
